--- a/static/uploads/MAU/xinnghikhac.xlsx
+++ b/static/uploads/MAU/xinnghikhac.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Khanh\Desktop\HRM\static\uploads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Khanh\Desktop\HRM\static\uploads\MAU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0FAAA7D5-7C52-4E4F-AB5C-75FFC7796EDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B46D8B1-C4FF-4976-851A-6B71D4FA6130}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C6114B2E-89B8-44FC-93C7-5E196F2A7163}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C6114B2E-89B8-44FC-93C7-5E196F2A7163}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t xml:space="preserve">MST </t>
   </si>
@@ -40,6 +40,39 @@
   </si>
   <si>
     <t>Loại nghỉ</t>
+  </si>
+  <si>
+    <t>Kí hiệu</t>
+  </si>
+  <si>
+    <t>Đi muộn</t>
+  </si>
+  <si>
+    <t>Về sớm</t>
+  </si>
+  <si>
+    <t>Ra ngoài</t>
+  </si>
+  <si>
+    <t>Không lương</t>
+  </si>
+  <si>
+    <t>Nghỉ bù</t>
+  </si>
+  <si>
+    <t>TI</t>
+  </si>
+  <si>
+    <t>EO</t>
+  </si>
+  <si>
+    <t>OUT</t>
+  </si>
+  <si>
+    <t>UP</t>
+  </si>
+  <si>
+    <t>CL</t>
   </si>
 </sst>
 </file>
@@ -64,7 +97,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -74,6 +107,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -105,11 +144,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -424,22 +465,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47DBDC92-8DAF-4792-86D4-D1F84E6FA916}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="A1:E1"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.7109375" customWidth="1"/>
+    <col min="1" max="6" width="17.140625" customWidth="1"/>
+    <col min="11" max="11" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -455,8 +493,64 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="str">
+        <f>IF(E2&lt;&gt;"",VLOOKUP(E2,$K$1:$L$5,2,0),"")</f>
+        <v>UP</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F7" s="2"/>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E100" xr:uid="{314DAF0D-803A-4878-BD82-3C85149C3C48}">
+      <formula1>$K$1:$K$5</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/static/uploads/MAU/xinnghikhac.xlsx
+++ b/static/uploads/MAU/xinnghikhac.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Khanh\Desktop\HRM\static\uploads\MAU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B46D8B1-C4FF-4976-851A-6B71D4FA6130}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91509436-EED2-4632-A474-165B1F077914}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C6114B2E-89B8-44FC-93C7-5E196F2A7163}"/>
   </bookViews>
@@ -25,13 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
-  <si>
-    <t xml:space="preserve">MST </t>
-  </si>
-  <si>
-    <t>Nhà máy</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>Ngày nghỉ</t>
   </si>
@@ -73,6 +67,15 @@
   </si>
   <si>
     <t>CL</t>
+  </si>
+  <si>
+    <t>Mã công ty</t>
+  </si>
+  <si>
+    <t>NT1</t>
+  </si>
+  <si>
+    <t>Mã số thẻ</t>
   </si>
 </sst>
 </file>
@@ -144,13 +147,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -468,7 +472,7 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -479,67 +483,79 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="K1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>6</v>
-      </c>
       <c r="L1" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2">
+        <v>123456</v>
+      </c>
+      <c r="C2" s="4">
+        <v>45449</v>
+      </c>
+      <c r="D2">
+        <v>240</v>
+      </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F2" t="str">
         <f>IF(E2&lt;&gt;"",VLOOKUP(E2,$K$1:$L$5,2,0),"")</f>
         <v>UP</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K3" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K4" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K5" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">

--- a/static/uploads/MAU/xinnghikhac.xlsx
+++ b/static/uploads/MAU/xinnghikhac.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Khanh\Desktop\HRM\static\uploads\MAU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91509436-EED2-4632-A474-165B1F077914}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07567F5E-6D67-443E-9931-83FBDC2EB19F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C6114B2E-89B8-44FC-93C7-5E196F2A7163}"/>
   </bookViews>
@@ -147,7 +147,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -155,6 +155,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -472,12 +476,16 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="17.140625" customWidth="1"/>
+    <col min="1" max="1" width="17.140625" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" style="6" customWidth="1"/>
+    <col min="5" max="6" width="17.140625" customWidth="1"/>
     <col min="11" max="11" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -485,13 +493,13 @@
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -511,13 +519,13 @@
       <c r="A2" t="s">
         <v>15</v>
       </c>
-      <c r="B2">
-        <v>123456</v>
+      <c r="B2" s="6">
+        <v>12579</v>
       </c>
       <c r="C2" s="4">
         <v>45449</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="6">
         <v>240</v>
       </c>
       <c r="E2" t="s">
